--- a/src/main/resources/static/excelTemplate/ACCOUNT_IMPORT.xlsx
+++ b/src/main/resources/static/excelTemplate/ACCOUNT_IMPORT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <r>
       <t>科目名称</t>
@@ -106,6 +106,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>父级科目编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                     会计科目表(*号为必填项,当级次大于1时，父级科目编码必填)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>是否银行</t>
     </r>
@@ -123,11 +131,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>父级科目编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                     会计科目表(*号为必填项,当级次大于1时，父级科目编码必填)</t>
+    <r>
+      <t>科目类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,20 +481,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -488,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -497,7 +514,10 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -505,13 +525,16 @@
     <mergeCell ref="A1:XFD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576 E3:E1048576 E1 F1 G1 G3:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D3:D1048576 B3:B1048576 B1 C1 C3:C1048576">
       <formula1>0</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
+      <formula1>"资产类,成本类,费用类,负债类,所有者权益类,收入类"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
